--- a/elizondo/experimentos/results/pelea_geneticos.xlsx
+++ b/elizondo/experimentos/results/pelea_geneticos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BMusso\Downloads\nuevo_experimento_genetico_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CED84F-941D-493D-B891-DD459FB53C96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pelea_geneticos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>genetico</t>
   </si>
@@ -226,40 +232,100 @@
     <t>0.26</t>
   </si>
   <si>
-    <t>Competencia-Crossover Especificado-Goles</t>
-  </si>
-  <si>
-    <t>Competencia-Crossover Especificado-Puntaje</t>
-  </si>
-  <si>
-    <t>Competencia-Crossover Aleatorio-Goles</t>
-  </si>
-  <si>
-    <t>Competencia-Crossover Aleatorio-Puntaje</t>
-  </si>
-  <si>
-    <t>Ponderado-Crossover Especificado-Goles</t>
-  </si>
-  <si>
-    <t>Ponderado-Crossover Especificado-Puntaje</t>
-  </si>
-  <si>
-    <t>Ponderado-Crossover Aleatorio-Goles</t>
-  </si>
-  <si>
-    <t>Ponderado-Crossover Aleatorio-Puntaje</t>
-  </si>
-  <si>
     <t>Cantidad Victorias</t>
   </si>
   <si>
     <t>Combinación de pesos utilizada</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Goles</t>
+  </si>
+  <si>
+    <t>Competencia-Especificado-Goles</t>
+  </si>
+  <si>
+    <t>Competencia-Especificado-Puntaje</t>
+  </si>
+  <si>
+    <t>Competencia-Aleatorio-Goles</t>
+  </si>
+  <si>
+    <t>Competencia-Aleatorio-Puntaje</t>
+  </si>
+  <si>
+    <t>Ponderado-Especificado-Goles</t>
+  </si>
+  <si>
+    <t>Ponderado-Especificado-Puntaje</t>
+  </si>
+  <si>
+    <t>Ponderado-Aleatorio-Goles</t>
+  </si>
+  <si>
+    <t>Ponderado-Aleatorio-Puntaje</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -884,6 +950,45 @@
       </left>
       <right/>
       <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="thick">
@@ -936,7 +1041,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -944,89 +1049,99 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,12 +1149,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,7 +1199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,9 +1232,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,6 +1284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1324,741 +1476,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>51</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>58</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>64</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>65</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10">
+        <v>42</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="14"/>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="18" spans="1:14" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="13">
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C19" s="14">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>22</v>
+      <c r="D19" s="14">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="8">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="E11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
